--- a/master_trim_DA40NG.xlsx
+++ b/master_trim_DA40NG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4007\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4007\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E3B8B2-5434-46C8-8B7E-BDE1D7DA4293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB448C8-B0CF-40F1-887D-1563480D9764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="395" xr2:uid="{D340AD00-9FC5-461F-B6FB-3CA8250EFBDF}"/>
   </bookViews>
@@ -99,78 +99,78 @@
     <t>Baggage</t>
   </si>
   <si>
+    <t>TOTAL WEIGHT</t>
+  </si>
+  <si>
+    <t>Pilot's Seat</t>
+  </si>
+  <si>
+    <t>Pax</t>
+  </si>
+  <si>
+    <t>Forward Part</t>
+  </si>
+  <si>
+    <t>Aft part</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>WEIGHT (lbs.)</t>
+  </si>
+  <si>
+    <t>ARM (Inches)</t>
+  </si>
+  <si>
+    <t>MOMENT (Inch-lbs./inch-kgs)</t>
+  </si>
+  <si>
+    <t>TOTAL MOMENT</t>
+  </si>
+  <si>
+    <t>The flight CG position must be within the following limits:</t>
+  </si>
+  <si>
+    <t>Most Forward CG:-</t>
+  </si>
+  <si>
+    <t>2.469 m(97.2 in) aft of DP at 1310 kg (2888 lb)</t>
+  </si>
+  <si>
+    <t>linear variation between these values</t>
+  </si>
+  <si>
+    <t>Most rearward CG:-</t>
+  </si>
+  <si>
+    <t>2.53 m (99.6 in) aft of DP from 940 kg(2072 lb) to 1310 kg (2888 lb)</t>
+  </si>
+  <si>
+    <t>Airplane CG Position:</t>
+  </si>
+  <si>
+    <t>Note: Prepared as per approved weight schedule.</t>
+  </si>
+  <si>
+    <t>1310 kg</t>
+  </si>
+  <si>
+    <t>The Load and Trim Sheet is prepared by: …..</t>
+  </si>
+  <si>
+    <t>Name of PIC: ….. Signature: ….. License No …..</t>
+  </si>
+  <si>
     <t>Fuel:
 Ltrs x
-1.58= lbs</t>
-  </si>
-  <si>
-    <t>TOTAL WEIGHT</t>
-  </si>
-  <si>
-    <t>Pilot's Seat</t>
-  </si>
-  <si>
-    <t>Pax</t>
-  </si>
-  <si>
-    <t>Forward Part</t>
-  </si>
-  <si>
-    <t>Aft part</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>WEIGHT (lbs.)</t>
-  </si>
-  <si>
-    <t>ARM (Inches)</t>
-  </si>
-  <si>
-    <t>MOMENT (Inch-lbs./inch-kgs)</t>
-  </si>
-  <si>
-    <t>TOTAL MOMENT</t>
-  </si>
-  <si>
-    <t>The flight CG position must be within the following limits:</t>
-  </si>
-  <si>
-    <t>Most Forward CG:-</t>
-  </si>
-  <si>
-    <t>2.469 m(97.2 in) aft of DP at 1310 kg (2888 lb)</t>
-  </si>
-  <si>
-    <t>linear variation between these values</t>
-  </si>
-  <si>
-    <t>Most rearward CG:-</t>
-  </si>
-  <si>
-    <t>2.53 m (99.6 in) aft of DP from 940 kg(2072 lb) to 1310 kg (2888 lb)</t>
-  </si>
-  <si>
-    <t>Airplane CG Position:</t>
-  </si>
-  <si>
-    <t>Note: Prepared as per approved weight schedule.</t>
-  </si>
-  <si>
-    <t>1310 kg</t>
-  </si>
-  <si>
-    <t>The Load and Trim Sheet is prepared by: …..</t>
-  </si>
-  <si>
-    <t>Name of PIC: ….. Signature: ….. License No …..</t>
+1.76= lbs</t>
   </si>
 </sst>
 </file>
@@ -353,47 +353,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +712,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,12 +726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
@@ -753,8 +753,8 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -768,8 +768,8 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -783,8 +783,8 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -798,64 +798,64 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="2"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -864,11 +864,11 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="2"/>
       <c r="E10" s="15"/>
       <c r="F10" s="2"/>
@@ -877,12 +877,12 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="15"/>
@@ -894,10 +894,10 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="15"/>
@@ -909,12 +909,12 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="15"/>
@@ -926,10 +926,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
@@ -941,12 +941,12 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="15"/>
@@ -958,10 +958,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="15"/>
@@ -973,14 +973,14 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>21</v>
+      <c r="A17" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="15"/>
       <c r="F17" s="1">
         <v>103.5</v>
@@ -990,12 +990,12 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="15"/>
       <c r="F18" s="1">
         <v>103.5</v>
@@ -1006,35 +1006,35 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="15"/>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1046,34 +1046,34 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1085,32 +1085,32 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -1118,34 +1118,34 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="A28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1168,6 +1168,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:B12"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="C17:D17"/>
@@ -1179,16 +1189,6 @@
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="H2:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
